--- a/biology/Zoologie/Androctonus_australis/Androctonus_australis.xlsx
+++ b/biology/Zoologie/Androctonus_australis/Androctonus_australis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Androctonus australis ou Scorpion jaune à queue large est une espèce de scorpions de la famille des Buthidae.
-Cette espèce est responsable de la majorité des décès par piqûres de scorpions en Afrique du Nord[1].
+Cette espèce est responsable de la majorité des décès par piqûres de scorpions en Afrique du Nord.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Algérie, en Tunisie, en Libye et en Égypte[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Algérie, en Tunisie, en Libye et en Égypte.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Androctonus australis vit plutôt dans les zones sableuses désertiques, mais on le rencontre également en campagne ou à proximité des habitations. En général, il ne creuse pas de terriers mais s'abrite sous des pierres.
 </t>
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Androctonus australis mesure jusqu'à 100 mm[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Androctonus australis mesure jusqu'à 100 mm.
 Ce scorpion est jaune paille et selon les sous-espèces, des zones plus ou moins foncées sont présentes en divers endroits du corps (pinces et derniers anneaux de la queue notamment). La queue (metasoma) présente des anneaux fortement élargis vers l'arrière.
 Il se nourrit d'insectes, de lézards et de petits rongeurs.
 </t>
@@ -607,7 +625,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La reproduction débute par des préliminaires, qui consistent en une parade face à face, abdomen relevé, suivie d'une promenade, pince dans la pince. En effet le mâle prend sa partenaire par ses pinces et lui fait faire une petite promenade, lui à reculons et elle en avançant. Cette promenade est entrecoupée de pauses. Lorsque le couple est las de se promener, le mâle dirige la femelle en lieu sûr et l'accouplement commence. À vrai dire, il n'y a pas d'accouplement à proprement parler. Le mâle dépose son spermatophore et guide l’orifice génital de la femelle vers celui-ci.
 La gestation est très longue et dure de 4 à 6 mois. La femelle met au monde de 30 à 90 jeunes scorpions (pulli) qui vont vivre sur son dos jusqu'à la première mue.
@@ -640,9 +660,11 @@
           <t>Venin</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son venin neurotoxique est très toxique[4] et peut entraîner la mort chez l'homme, notamment chez les sujets âgés ou malades ou les jeunes enfants. Quand il n'est pas létal, le venin peut n'engendrer qu'une simple douleur vive mais il peut aussi provoquer des dégâts importants et parfois irréversibles. En cas de piqûre il faut donc aller en urgence dans un lieu médicalisé pour y recevoir le sérum antivenimeux existant, c'est primordial.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son venin neurotoxique est très toxique et peut entraîner la mort chez l'homme, notamment chez les sujets âgés ou malades ou les jeunes enfants. Quand il n'est pas létal, le venin peut n'engendrer qu'une simple douleur vive mais il peut aussi provoquer des dégâts importants et parfois irréversibles. En cas de piqûre il faut donc aller en urgence dans un lieu médicalisé pour y recevoir le sérum antivenimeux existant, c'est primordial.
 </t>
         </is>
       </c>
@@ -671,7 +693,9 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon The Scorpion Files
 Androctonus australis australis (Linnaeus, 1758)
@@ -706,7 +730,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Linnaeus, 1758 : Systema naturae per regna tria naturae, secundum classes, ordines, genera, species, cum characteribus, differentiis, synonymis, locis, ed. 10 (texte intégral).</t>
         </is>
